--- a/data/case1/11/Qlm2_3.xlsx
+++ b/data/case1/11/Qlm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.14642660646104844</v>
+        <v>-0.21342162492258865</v>
       </c>
       <c r="B1" s="0">
-        <v>0.14612884322889386</v>
+        <v>0.21289143111924602</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.11229117909331965</v>
+        <v>-0.16468440069001566</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1114381376780198</v>
+        <v>0.16300842959819661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.061727574963759579</v>
+        <v>-0.11329003793667525</v>
       </c>
       <c r="B3" s="0">
-        <v>0.061566931413453929</v>
+        <v>0.11276953615592511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.05356693153835046</v>
+        <v>-0.1047695362122294</v>
       </c>
       <c r="B4" s="0">
-        <v>0.053438731301168829</v>
+        <v>0.10430024543537542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.05043873136547905</v>
+        <v>-0.10130024546733196</v>
       </c>
       <c r="B5" s="0">
-        <v>0.05002426726261433</v>
+        <v>0.099704431206250277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.014624128092464161</v>
+        <v>-0.030509262976421425</v>
       </c>
       <c r="B6" s="0">
-        <v>0.014527314997224039</v>
+        <v>0.030184785381152324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0045273151642462039</v>
+        <v>-0.02018478545971103</v>
       </c>
       <c r="B7" s="0">
-        <v>0.004516649638764747</v>
+        <v>0.020115999893800751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0054833501936073503</v>
+        <v>-0.010115999973525636</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0054866683868426414</v>
+        <v>0.010019830179918365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0074866683249612542</v>
+        <v>-0.0080198302158680512</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0074890212135314549</v>
+        <v>0.0079494841541616346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0094890211534188751</v>
+        <v>-0.0059494841903902085</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0094882996832215127</v>
+        <v>0.0059464425047046632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.012488299610110332</v>
+        <v>-0.0029464425463689992</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.012488483033804343</v>
+        <v>0.0029414118813315682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.015988482954841565</v>
+        <v>0.00055858807422914936</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.016026241175631117</v>
+        <v>-0.00058985626990049056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.019526241102407305</v>
+        <v>0.0040898562261304505</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.019564750286088284</v>
+        <v>-0.0040996137404816224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090761703861881315</v>
+        <v>0.012099613672349463</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090496531958379478</v>
+        <v>-0.012104517211366961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080496532350915473</v>
+        <v>-0.0080538998301271647</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080325767358608857</v>
+        <v>0.0080350632966776914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060325767894089388</v>
+        <v>-0.0060350633312387103</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060027768042010266</v>
+        <v>0.0060034922759952813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040027768594619317</v>
+        <v>-0.0040034923110630061</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999181175028</v>
+        <v>0.0039999999536757258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.027837664216232128</v>
+        <v>-0.042207030463689676</v>
       </c>
       <c r="B18" s="0">
-        <v>0.027782285801905005</v>
+        <v>0.042133853006667721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02982071887125759</v>
+        <v>-0.038133853030603237</v>
       </c>
       <c r="B19" s="0">
-        <v>0.029472767565615676</v>
+        <v>0.037613532801219929</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080155468194913482</v>
+        <v>-0.0080168647764793377</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055075816503063</v>
+        <v>0.0080057188147133473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055076484337704</v>
+        <v>-0.0040057188445041803</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999327200442</v>
+        <v>0.0039999999700262023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045710562781968278</v>
+        <v>-0.045718391692409099</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045498328816249156</v>
+        <v>0.045503209488467533</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040498328901711567</v>
+        <v>-0.040503209526706385</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098624725666276</v>
+        <v>0.040099853546149866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098625015576133</v>
+        <v>-0.020099853670582313</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999705891724</v>
+        <v>0.019999999873957286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.033400139232384163</v>
+        <v>-0.067195168264140293</v>
       </c>
       <c r="B25" s="0">
-        <v>0.033390850039133113</v>
+        <v>0.067136510367170388</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.030890850107750722</v>
+        <v>-0.064636510405227554</v>
       </c>
       <c r="B26" s="0">
-        <v>0.030880430492317146</v>
+        <v>0.064563479038170613</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.028380430562616521</v>
+        <v>-0.056895245070801348</v>
       </c>
       <c r="B27" s="0">
-        <v>0.028316663621884341</v>
+        <v>0.056597259452395576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.026316663693328302</v>
+        <v>-0.054597259495186456</v>
       </c>
       <c r="B28" s="0">
-        <v>0.026281304367762992</v>
+        <v>0.054404796656262633</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.019281304509749297</v>
+        <v>-0.047404796731003174</v>
       </c>
       <c r="B29" s="0">
-        <v>0.01927634341950224</v>
+        <v>0.047358185342799786</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.040723655745031451</v>
+        <v>0.012641814287398301</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.040861052470019921</v>
+        <v>-0.012652364207470068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.019457574668793498</v>
+        <v>0.019652364131898636</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.019464011598534725</v>
+        <v>-0.019666606007373133</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.029464011425615055</v>
+        <v>-0.01829998826067758</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.029509783996770622</v>
+        <v>0.018271729722421526</v>
       </c>
     </row>
   </sheetData>
